--- a/biology/Histoire de la zoologie et de la botanique/Zsófia_Torma/Zsófia_Torma.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Zsófia_Torma/Zsófia_Torma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zs%C3%B3fia_Torma</t>
+          <t>Zsófia_Torma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zsófia Torma, née le 26 septembre 1832 à Csicsókeresztúr (aujourd'hui Cristeștii Ciceului), dans le comitat de Beszterce-Naszód et morte le 14 novembre 1899 à Orăştie, est une archéologue, anthropologue et paléontologue hongroise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zs%C3%B3fia_Torma</t>
+          <t>Zsófia_Torma</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zsófia Torma nait à Csicsókeresztúr (aujourd'hui Cristeștii Ciceului), dans le comitat de Beszterce-Naszód, alors en Autriche-Hongrie (nommé aujourd'hui le Județ de Bistrița-Năsăud, en Roumanie). Elle est la fille de l'historien József Torma  (1801-1861), et la sœur de l'homme politique hongrois Károly Torma, par ailleurs archéologue. Son apprentissage a été effectué en autodidacte. La signification des symboles et des inscriptions sur les objets en argile qu'elle a trouve lors d'une fouille dans le comitat de Hunyad sont à l'époque un événement archéologique. Elle est aussi connue pour avoir trouvé des artefacts de culture Vinča vieux de 6 000 à 7 000 ans, dont certains sont recouverts de symboles Vinca.
 Son ouvrage le plus connu, le Ethnographische Analogien, a été publié à Iéna en 1894.
